--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>A</t>
   </si>
@@ -175,46 +175,52 @@
     <t>Properties with errors:</t>
   </si>
   <si>
+    <t>HUTTO TOWER: no button or not 990</t>
+  </si>
+  <si>
+    <t>CATHEDRAL PLACE APTS.: no button or not 990</t>
+  </si>
+  <si>
+    <t>Owner Organization Name</t>
+  </si>
+  <si>
+    <t>ALBEMARLE HOUSING ASSOCIATES, LP</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>BOOTH MANOR, INC.</t>
+  </si>
+  <si>
+    <t>National Church Residences of Cap. Hgts., MD</t>
+  </si>
+  <si>
+    <t>ALABAMA BAPTIST RETIREMENT CENTERS, INC.</t>
+  </si>
+  <si>
+    <t>CATHOLIC HOUSING OF MOBILE, INC.</t>
+  </si>
+  <si>
+    <t>Property Name</t>
+  </si>
+  <si>
+    <t>PARK'S EDGE</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>BOOTH MANOR</t>
+  </si>
+  <si>
+    <t>GATEWAY VILLAGE</t>
+  </si>
+  <si>
     <t>HUTTO TOWER</t>
   </si>
   <si>
     <t>CATHEDRAL PLACE APTS.</t>
-  </si>
-  <si>
-    <t>Owner Organization Name</t>
-  </si>
-  <si>
-    <t>ALBEMARLE HOUSING ASSOCIATES, LP</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>BOOTH MANOR, INC.</t>
-  </si>
-  <si>
-    <t>National Church Residences of Cap. Hgts., MD</t>
-  </si>
-  <si>
-    <t>ALABAMA BAPTIST RETIREMENT CENTERS, INC.</t>
-  </si>
-  <si>
-    <t>CATHOLIC HOUSING OF MOBILE, INC.</t>
-  </si>
-  <si>
-    <t>Property Name</t>
-  </si>
-  <si>
-    <t>PARK'S EDGE</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>BOOTH MANOR</t>
-  </si>
-  <si>
-    <t>GATEWAY VILLAGE</t>
   </si>
   <si>
     <t>Project Category</t>
@@ -748,31 +754,31 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -786,28 +792,28 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J3">
         <v>22901</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -821,10 +827,10 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -908,31 +914,31 @@
         <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -946,28 +952,28 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -981,10 +987,10 @@
         <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1043,31 +1049,31 @@
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1081,28 +1087,28 @@
         <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1116,10 +1122,10 @@
         <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1208,28 +1214,28 @@
         <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1240,28 +1246,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F53">
         <v>98</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1275,10 +1281,10 @@
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1292,28 +1298,28 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1324,28 +1330,28 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57">
         <v>192</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1359,10 +1365,10 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:11">
